--- a/app_JobShortList/requirement_and_response_SN.xlsx
+++ b/app_JobShortList/requirement_and_response_SN.xlsx
@@ -1,64 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/BOOK-II/servicenow-interview-proj/app_JobShortList/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC7143F0-4764-C74C-9E0F-23CCF3234E4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="28300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="company_info" sheetId="1" r:id="rId1"/>
-    <sheet name="job_description" sheetId="2" r:id="rId2"/>
-    <sheet name="job_responsibilities" sheetId="3" r:id="rId3"/>
-    <sheet name="job_qualifications" sheetId="4" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="company_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="job_description" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="job_responsibilities" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="job_qualifications" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="4">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>info</t>
-  </si>
-  <si>
-    <t>job_requirement</t>
-  </si>
-  <si>
-    <t>applicant_response</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
-      <family val="2"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -77,24 +53,83 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -382,24 +417,33 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="180" zoomScaleNormal="180" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30" customWidth="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>job_requirement</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_response</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -408,22 +452,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="200" zoomScaleNormal="200" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30" customWidth="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>job_requirement</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_response</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -432,22 +487,33 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="190" zoomScaleNormal="190" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30" customWidth="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>job_requirement</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_response</t>
+        </is>
       </c>
     </row>
   </sheetData>
@@ -456,22 +522,33 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView zoomScale="220" zoomScaleNormal="220" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="2" width="30" customWidth="1"/>
+    <col width="30" customWidth="1" min="1" max="1"/>
+    <col width="30" customWidth="1" min="2" max="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>3</v>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>job_requirement</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>applicant_response</t>
+        </is>
       </c>
     </row>
   </sheetData>

--- a/app_JobShortList/requirement_and_response_SN.xlsx
+++ b/app_JobShortList/requirement_and_response_SN.xlsx
@@ -1,46 +1,338 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10908"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sudz4/Desktop/BOOK-II/servicenow-interview-proj/app_JobShortList/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDCEC14C-867C-7C4C-AAAC-B8059167AFE3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="51200" windowHeight="26600" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="company_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="job_description" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="job_responsibilities" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="job_qualifications" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="company_info" sheetId="1" r:id="rId1"/>
+    <sheet name="job_description" sheetId="2" r:id="rId2"/>
+    <sheet name="job_responsibilities" sheetId="3" r:id="rId3"/>
+    <sheet name="job_qualifications" sheetId="4" r:id="rId4"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="48">
+  <si>
+    <t>job_requirement</t>
+  </si>
+  <si>
+    <t>applicant_response</t>
+  </si>
+  <si>
+    <t>We know that your best work happens when you live your best
+life and share your unique talents, so we do everything we can to make that possible.</t>
+  </si>
+  <si>
+    <t>With more than 7,700+ customers, we serve approximately 85% of the Fortune 500</t>
+  </si>
+  <si>
+    <t>The ServiceNow Partner Design Studio is seeking a Senior Manager, Platform Architecture to lead our
+team of architects.</t>
+  </si>
+  <si>
+    <t>We utilize human-centered, design thinking tools and mindset to achieve
+exponential results.</t>
+  </si>
+  <si>
+    <t>The Partner Design Studio is part of our presales organization. We are focused solely on co-creating
+innovative solutions with ServiceNow partners.</t>
+  </si>
+  <si>
+    <t>We do this by leveraging best practices and industry standards to architect best-in-class solutions.</t>
+  </si>
+  <si>
+    <t>Our team brings technical expertise, real-world
+experience, strong executive engagement skills, and an inspirational mindset to help our partners
+understand the opportunities of the "platform of platforms" vision.</t>
+  </si>
+  <si>
+    <t>We act as technical leaders for our
+partners' most complex solutions, designed to ensure they can realize the value they need.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">As a Senior Manager, you will lead a team of architects in collaboration with partners and ServiceNow
+Alliance Managers, guiding stakeholders through the process of creating partner-branded offerings
+based on the ServiceNow platform and technology. </t>
+  </si>
+  <si>
+    <t>The ideal candidate will have extensive experience
+in enterprise software, building solutions with technology partners, and leading strategic conversations
+based on industry, market, and horizontal positioning to help partners find the best opportunities to
+deploy ServiceNow as a solution.</t>
+  </si>
+  <si>
+    <t>Lead and inspire a team of platform architects, driving the technical, design, and problem-solving
+guidance for market-making strategic partners.</t>
+  </si>
+  <si>
+    <t>Engage with partner teams and key decision-makers to understand business imperatives and partner
+specializations.</t>
+  </si>
+  <si>
+    <t>Serve as an evangelist for ServiceNow platform and technology capabilities, leading technology
+conversations with partners</t>
+  </si>
+  <si>
+    <t>Collaborate on Business Plan creation, working with partners to determine goals, strategy, and
+measurable objectives.</t>
+  </si>
+  <si>
+    <t>Facilitate design workshops and work with partners to document user personas, uncover market needs,
+and partner with cross-functional teams to bring offerings to market.</t>
+  </si>
+  <si>
+    <t>Develop a clear understanding of partners' solution offerings and markets addressed.</t>
+  </si>
+  <si>
+    <t>Assess partners' capabilities and capacity, co-creating goals and strategies.</t>
+  </si>
+  <si>
+    <t>Determine resource allocation towards partner efforts based on the level of integration and strategic
+nature of the partner.</t>
+  </si>
+  <si>
+    <t>Define offerings, assist in project scoping, and determine capabilities needed to successfully create,
+operationalize, and deliver offerings.</t>
+  </si>
+  <si>
+    <t>Identify gaps in partner capabilities and direct appropriate teams and resources to fill.</t>
+  </si>
+  <si>
+    <t>Create handoff with Solution Development team for the build phase once solution goals are defined.</t>
+  </si>
+  <si>
+    <t>Travel for partner, customer, and organizational activities up to 50%.</t>
+  </si>
+  <si>
+    <t>Cultivate relationships and manage communications with ServiceNow field to promote solution
+offerings.</t>
+  </si>
+  <si>
+    <t>Advanced degree</t>
+  </si>
+  <si>
+    <t>Certifications</t>
+  </si>
+  <si>
+    <t>10+ years leadership experience in enterprise software, technical sales, pre-sales, or similar.</t>
+  </si>
+  <si>
+    <t>Significant experience working with technology partners, either at a partner or OEM.</t>
+  </si>
+  <si>
+    <t>Excellent understanding of architectural principles for cloud-based platforms, including SaaS, PaaS,
+multi-tenancy, and automation.</t>
+  </si>
+  <si>
+    <t>Industry vertical knowledge (such as Financial Services, Banking, Healthcare, Manufacturing) is a plus</t>
+  </si>
+  <si>
+    <t>Passionate about leading edge and emerging technologies towards the goal of developing innovative
+solutions.</t>
+  </si>
+  <si>
+    <t>Talented at explaining complex topics clearly and concisely; effective at providing practical guidance;
+able to demonstrate and present at the highest level.</t>
+  </si>
+  <si>
+    <t>Experience working with large corporate enterprises or government environments, engaging at the
+CxO level.</t>
+  </si>
+  <si>
+    <t>Superior verbal and written communication skills, facilitation skills, and impeccable communication
+habits.</t>
+  </si>
+  <si>
+    <t>Entrepreneurial skills, organizational savvy, and the ability to collaborate crucial.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Cyber Security Engineering – (MS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>University of San Diego</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Applied Data Science – (MS)</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri (Body)"/>
+      </rPr>
+      <t>Syracuse University</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+  </si>
+  <si>
+    <t>CIS - IT Service Management (ITSM),
+CIS - Field Service Management,  
+CIS - ITOM – Discovery, 
+CIS - Vulnerability Response (VR),
+CIS - Strategic Portfolio Management (SPR, ITBM),
+CIS - Security Incident Response (SIR)
+CIS – Event Management (EM)</t>
+  </si>
+  <si>
+    <t>Experience and education that will help you stand out: Presales</t>
+  </si>
+  <si>
+    <t>Experience and education that will help you stand out: Solution development on competitive platforms</t>
+  </si>
+  <si>
+    <t>Experience and education that will help you stand out: ServiceNow platform development experience</t>
+  </si>
+  <si>
+    <t>Experience and education that will help you stand out: ServiceNow certifications</t>
+  </si>
+  <si>
+    <t>Experience and education that will help you stand out: Design Thinking certifications and/or demonstrable training.</t>
+  </si>
+  <si>
+    <t>To be successful in this role, you have: Successfully led diverse teams to reach challenging goals and can leverage organizational networks to
+get things done.</t>
+  </si>
+  <si>
+    <t>To be successful in this role, you have: Expertise in designing, implementing, and managing advanced architectures in an application domain
+and integrating multiple systems or platforms.</t>
+  </si>
+  <si>
+    <t>To be successful in this role, you have: A proven track record of success with Enterprise Architecture or Application Architecture; pre-sales in a
+software vendor, large Enterprise, or professional services environment.</t>
+  </si>
+  <si>
+    <t>To be successful in this role, you have: Experience presenting architecture concepts, designs, and goals to technology leaders and partners.</t>
+  </si>
+  <si>
+    <t>Very significant experience working with and for ServiceNow technology partners. Experience ranges from traditional pre-sales demos, to project scoping, project delivery (developer, architect), and project delivery technical lead.</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri (Body)"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -48,88 +340,63 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="9">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -417,33 +684,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:B3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView zoomScale="210" zoomScaleNormal="210" workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
+    <col min="1" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>job_requirement</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>applicant_response</t>
-        </is>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -452,33 +720,65 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A6" zoomScale="220" zoomScaleNormal="220" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
+    <col min="1" max="2" width="30" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>job_requirement</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>applicant_response</t>
-        </is>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A2" s="4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A3" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A4" s="4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="4"/>
+    </row>
+    <row r="6" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A6" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="4" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="128" x14ac:dyDescent="0.2">
+      <c r="A8" s="4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="160" x14ac:dyDescent="0.2">
+      <c r="A9" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
   </sheetData>
@@ -487,33 +787,89 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+  <dimension ref="A1:B14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView topLeftCell="A7" zoomScale="260" zoomScaleNormal="260" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
+    <col min="1" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>job_requirement</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>applicant_response</t>
-        </is>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A4" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" s="2" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="80" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A7" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -522,33 +878,134 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+  <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="290" zoomScaleNormal="290" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col width="30" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
+    <col min="1" max="1" width="78.1640625" customWidth="1"/>
+    <col min="2" max="2" width="52.5" style="4" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>job_requirement</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>applicant_response</t>
-        </is>
+    <row r="1" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A1" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="112" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" s="8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="64" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>28</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A6" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A8" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A9" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A10" s="2" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="48" x14ac:dyDescent="0.2">
+      <c r="A11" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A12" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A13" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A14" s="2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" ht="32" x14ac:dyDescent="0.2">
+      <c r="A15" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="16" x14ac:dyDescent="0.2">
+      <c r="A16" s="2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A17" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A18" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A19" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" ht="48" x14ac:dyDescent="0.2">
+      <c r="A20" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" ht="32" x14ac:dyDescent="0.2">
+      <c r="A21" s="2" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>
